--- a/outputs-HGR-r202-archive3/g__Ruminococcus_F.xlsx
+++ b/outputs-HGR-r202-archive3/g__Ruminococcus_F.xlsx
@@ -447,17 +447,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>max</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
         </is>
       </c>
     </row>
@@ -470,18 +470,18 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>s__Ruminococcus_F champanellensis</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_F champanellensis</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -493,18 +493,18 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>s__Ruminococcus_F champanellensis</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_F champanellensis</t>
-        </is>
+      <c r="E3" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -516,18 +516,18 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>s__Ruminococcus_F champanellensis</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_F champanellensis</t>
-        </is>
+      <c r="E4" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -539,18 +539,18 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>s__Ruminococcus_F champanellensis</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_F champanellensis</t>
-        </is>
+      <c r="E5" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
